--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jag2-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jag2-Notch3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.75560066666667</v>
+        <v>15.93194</v>
       </c>
       <c r="H2">
-        <v>50.266802</v>
+        <v>47.79582</v>
       </c>
       <c r="I2">
-        <v>0.9064438825950116</v>
+        <v>0.9552847657129105</v>
       </c>
       <c r="J2">
-        <v>0.9064438825950115</v>
+        <v>0.9552847657129107</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N2">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O2">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P2">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q2">
-        <v>124.9595667842527</v>
+        <v>51.63681424007333</v>
       </c>
       <c r="R2">
-        <v>1124.636101058274</v>
+        <v>464.73132816066</v>
       </c>
       <c r="S2">
-        <v>0.07278424435102447</v>
+        <v>0.02375084273799995</v>
       </c>
       <c r="T2">
-        <v>0.07278424435102446</v>
+        <v>0.02375084273799996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.75560066666667</v>
+        <v>15.93194</v>
       </c>
       <c r="H3">
-        <v>50.266802</v>
+        <v>47.79582</v>
       </c>
       <c r="I3">
-        <v>0.9064438825950116</v>
+        <v>0.9552847657129105</v>
       </c>
       <c r="J3">
-        <v>0.9064438825950115</v>
+        <v>0.9552847657129107</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O3">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P3">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q3">
-        <v>45.78482962207266</v>
+        <v>43.53416943745999</v>
       </c>
       <c r="R3">
-        <v>412.0634665986539</v>
+        <v>391.8075249371399</v>
       </c>
       <c r="S3">
-        <v>0.02666793997882929</v>
+        <v>0.02002395436773731</v>
       </c>
       <c r="T3">
-        <v>0.02666793997882928</v>
+        <v>0.02002395436773731</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.75560066666667</v>
+        <v>15.93194</v>
       </c>
       <c r="H4">
-        <v>50.266802</v>
+        <v>47.79582</v>
       </c>
       <c r="I4">
-        <v>0.9064438825950116</v>
+        <v>0.9552847657129105</v>
       </c>
       <c r="J4">
-        <v>0.9064438825950115</v>
+        <v>0.9552847657129107</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N4">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O4">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P4">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q4">
-        <v>1385.48299721797</v>
+        <v>1981.717930860553</v>
       </c>
       <c r="R4">
-        <v>12469.34697496173</v>
+        <v>17835.46137774498</v>
       </c>
       <c r="S4">
-        <v>0.8069916982651579</v>
+        <v>0.9115099686071731</v>
       </c>
       <c r="T4">
-        <v>0.8069916982651577</v>
+        <v>0.9115099686071734</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.230649</v>
       </c>
       <c r="I5">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019111</v>
       </c>
       <c r="J5">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019112</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N5">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O5">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P5">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q5">
-        <v>0.5733764228569999</v>
+        <v>0.2491845430763333</v>
       </c>
       <c r="R5">
-        <v>5.160387805712999</v>
+        <v>2.242660887687</v>
       </c>
       <c r="S5">
-        <v>0.0003339701852391454</v>
+        <v>0.0001146147953247157</v>
       </c>
       <c r="T5">
-        <v>0.0003339701852391453</v>
+        <v>0.0001146147953247157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.230649</v>
       </c>
       <c r="I6">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019111</v>
       </c>
       <c r="J6">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019112</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O6">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P6">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q6">
         <v>0.210083489447</v>
@@ -818,10 +818,10 @@
         <v>1.890751405023</v>
       </c>
       <c r="S6">
-        <v>0.0001223657253583985</v>
+        <v>9.662989464275835E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001223657253583985</v>
+        <v>9.662989464275837E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.230649</v>
       </c>
       <c r="I7">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019111</v>
       </c>
       <c r="J7">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019112</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N7">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O7">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P7">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q7">
-        <v>6.357282642037332</v>
+        <v>9.563205716212334</v>
       </c>
       <c r="R7">
-        <v>57.215543778336</v>
+        <v>86.06885144591101</v>
       </c>
       <c r="S7">
-        <v>0.003702877859887733</v>
+        <v>0.004398687223051636</v>
       </c>
       <c r="T7">
-        <v>0.003702877859887732</v>
+        <v>0.004398687223051638</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.652500333333333</v>
+        <v>0.6688636666666667</v>
       </c>
       <c r="H8">
-        <v>4.957501</v>
+        <v>2.006591</v>
       </c>
       <c r="I8">
-        <v>0.0893969036345032</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="J8">
-        <v>0.08939690363450319</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N8">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O8">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P8">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q8">
-        <v>12.32398228342633</v>
+        <v>2.167845780714778</v>
       </c>
       <c r="R8">
-        <v>110.915840550837</v>
+        <v>19.510612026433</v>
       </c>
       <c r="S8">
-        <v>0.007178255822887801</v>
+        <v>0.0009971212394825756</v>
       </c>
       <c r="T8">
-        <v>0.007178255822887799</v>
+        <v>0.0009971212394825758</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.652500333333333</v>
+        <v>0.6688636666666667</v>
       </c>
       <c r="H9">
-        <v>4.957501</v>
+        <v>2.006591</v>
       </c>
       <c r="I9">
-        <v>0.0893969036345032</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="J9">
-        <v>0.08939690363450319</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O9">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P9">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q9">
-        <v>4.515472033336333</v>
+        <v>1.827675988939667</v>
       </c>
       <c r="R9">
-        <v>40.63924830002699</v>
+        <v>16.449083900457</v>
       </c>
       <c r="S9">
-        <v>0.002630092503457574</v>
+        <v>0.0008406569155778138</v>
       </c>
       <c r="T9">
-        <v>0.002630092503457573</v>
+        <v>0.0008406569155778138</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.652500333333333</v>
+        <v>0.6688636666666667</v>
       </c>
       <c r="H10">
-        <v>4.957501</v>
+        <v>2.006591</v>
       </c>
       <c r="I10">
-        <v>0.0893969036345032</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="J10">
-        <v>0.08939690363450319</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N10">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O10">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P10">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q10">
-        <v>136.6415421492515</v>
+        <v>83.19759687360546</v>
       </c>
       <c r="R10">
-        <v>1229.773879343264</v>
+        <v>748.7783718624491</v>
       </c>
       <c r="S10">
-        <v>0.07958855530815782</v>
+        <v>0.03826752421900988</v>
       </c>
       <c r="T10">
-        <v>0.07958855530815781</v>
+        <v>0.03826752421900988</v>
       </c>
     </row>
   </sheetData>
